--- a/Check-list.xlsx
+++ b/Check-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iryna_Orlivska\,homework\13.Compatibility testing&amp;Configuration testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC8CF9B-733F-499C-8851-4B33FE97F9B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C73C44-1635-4BA2-85A8-4EF356EA5B17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5640" yWindow="2430" windowWidth="20010" windowHeight="11580" xr2:uid="{6869042F-D8D4-48B1-9ED9-3661BC6DEDAC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="32">
   <si>
     <t>Parts</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Safari v.12</t>
+  </si>
+  <si>
+    <t>windows 10</t>
+  </si>
+  <si>
+    <t>Mac 10.14</t>
   </si>
 </sst>
 </file>
@@ -548,7 +554,7 @@
   <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,14 +565,29 @@
     <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="19.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H1" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
